--- a/public/example/paris範例檔案.xlsx
+++ b/public/example/paris範例檔案.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" windowHeight="8010" windowWidth="14805" xWindow="8610" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,82 +16,120 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sponsor_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2</t>
+    <r>
+      <t>sn</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>detail</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>num</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>money</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>email</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tel</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sponsor_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>last_four</t>
   </si>
   <si>
-    <t>p4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>p4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>time</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gift</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,20 +143,30 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -423,17 +471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
   <cols>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -464,14 +511,14 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
